--- a/运行时间统计.xlsx
+++ b/运行时间统计.xlsx
@@ -16,15 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t>naive_simrank</t>
+    <t>naive_simrank(K=5)</t>
   </si>
   <si>
-    <t>optimize_simrank</t>
+    <t>optimized_simrank(K=6)</t>
   </si>
   <si>
-    <t>matrix_simrank</t>
+    <t>matrix_simrank(K=8)</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>python(numpy)</t>
+  </si>
+  <si>
+    <t>c++(opencv)</t>
   </si>
 </sst>
 </file>
@@ -32,12 +44,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +58,138 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,65 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -127,75 +210,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,37 +226,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,152 +410,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -415,13 +435,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,6 +477,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,30 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,168 +549,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -911,6 +983,181 @@
             <a:t>节点数</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3622675"/>
+          <a:ext cx="9162415" cy="917575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>注：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>为了精度相当，原生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>simrank</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>算法迭代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>次，优化后的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>threshold_simrank</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>算法迭代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>次，矩阵算法迭代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>次 。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>         2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>可以发现</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>c++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>在迭代算法中，比</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>快的多；而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>python</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>numpy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>对矩阵计算有优化，矩阵算法很快。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>3. c++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>实现的迭代算法中，当节点太少时，优化算法开销反而大一点点；节点越多，优化算法的优势越明显。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1206,153 +1453,261 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" spans="1:4">
+    <row r="1" ht="63" customHeight="1" spans="1:7">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" ht="34" customHeight="1" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="6">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="6">
         <v>3.38</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.74</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="6">
+        <v>0.015</v>
+      </c>
+      <c r="F3" s="6">
         <v>0.03</v>
       </c>
+      <c r="G3" s="6">
+        <v>0.002</v>
+      </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:4">
-      <c r="A3" s="1">
+    <row r="4" ht="21" customHeight="1" spans="1:7">
+      <c r="A4" s="6">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="6">
         <v>123.12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="6">
+        <v>0.093</v>
+      </c>
+      <c r="D4" s="6">
         <v>10.97</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.08</v>
+      <c r="E4" s="6">
+        <v>0.203</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.014</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:4">
-      <c r="A4" s="1">
+    <row r="5" ht="21" customHeight="1" spans="1:7">
+      <c r="A5" s="6">
         <v>100</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>0.889</v>
+      </c>
+      <c r="D5" s="6">
         <v>84.31</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.32</v>
+      <c r="E5" s="6">
+        <v>1.497</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.3588</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.104</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1" spans="1:4">
-      <c r="A5" s="1">
+    <row r="6" ht="21" customHeight="1" spans="1:7">
+      <c r="A6" s="6">
         <v>200</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>11.887</v>
+      </c>
+      <c r="D6" s="6">
         <v>661.48</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.32</v>
+      <c r="E6" s="6">
+        <v>11.637</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.466</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.836</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="1">
+    <row r="7" ht="21" customHeight="1" spans="1:7">
+      <c r="A7" s="6">
         <v>300</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>2.91</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>56.8</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>40.232</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.917</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.565</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:4">
-      <c r="A7" s="1">
+    <row r="8" ht="21" customHeight="1" spans="1:7">
+      <c r="A8" s="6">
         <v>500</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>8.04</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>427.129</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>186.253</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.36</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.258</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:4">
-      <c r="A8" s="1">
+    <row r="9" ht="21" customHeight="1" spans="1:7">
+      <c r="A9" s="6">
         <v>1000</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>34.25</v>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>35.12</v>
+      </c>
+      <c r="G9" s="6">
+        <v>90.738</v>
       </c>
     </row>
-    <row r="9" ht="21" customHeight="1" spans="1:4">
-      <c r="A9" s="1">
+    <row r="10" ht="21" customHeight="1" spans="1:7">
+      <c r="A10" s="6">
         <v>2000</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>137.94</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>152.023</v>
+      </c>
+      <c r="G10" s="6">
+        <v>724.488</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="12" ht="73" customHeight="1" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
